--- a/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
+++ b/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="960" windowWidth="23940" windowHeight="25900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Module.Schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
   <si>
     <t>Bioinformatics, Interpretation and Data Quality in Genome Analysis</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Extraction of clinical information from electronic health records</t>
-  </si>
-  <si>
-    <t>Phenome Central and Phenotips Papers : group presentations &amp; Discussion</t>
   </si>
   <si>
     <t>Location for Lectures and Tutorials</t>
@@ -430,9 +427,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,13 +483,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -824,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1524,7 +1523,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>56</v>
@@ -1720,17 +1719,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16">

--- a/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
+++ b/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
@@ -427,9 +427,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -483,7 +486,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -491,6 +494,9 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -821,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1464,13 +1470,13 @@
         <v>13</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="15"/>
       <c r="C49" s="8" t="s">
@@ -1481,7 +1487,7 @@
       </c>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="14"/>
       <c r="C50" s="9" t="s">
@@ -1492,20 +1498,22 @@
       </c>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="15"/>
       <c r="C51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="14"/>
       <c r="C52" s="9" t="s">
@@ -1516,7 +1524,7 @@
       </c>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="15"/>
       <c r="C53" s="8" t="s">
@@ -1529,7 +1537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="14"/>
       <c r="C54" s="9" t="s">
@@ -1540,21 +1548,21 @@
       </c>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="6" t="s">
         <v>70</v>
@@ -1569,7 +1577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8" t="s">
@@ -1582,7 +1590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="14"/>
       <c r="C59" s="9" t="s">
@@ -1595,7 +1603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="15"/>
       <c r="C60" s="8" t="s">
@@ -1606,7 +1614,7 @@
       </c>
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="14"/>
       <c r="C61" s="9" t="s">
@@ -1619,7 +1627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="15"/>
       <c r="C62" s="8" t="s">
@@ -1630,7 +1638,7 @@
       </c>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="14"/>
       <c r="C63" s="9" t="s">
@@ -1641,7 +1649,7 @@
       </c>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="15"/>
       <c r="C64" s="8" t="s">

--- a/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
+++ b/kcl-2016/TimeTable.7BBG2014.M7.Bioinformatics.Genomic.Medicine.Feb.2016.xlsx
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
